--- a/cos_women_shirts.xlsx
+++ b/cos_women_shirts.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,6458 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>A. UNIQUE_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>B. APPAREL_TYPOLOGY</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>C. AGENT_NAME</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D. BRAND</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>E. WEBSITE_URL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>F. PRODUCT_URL</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>G. CITY</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>H. WEBSITE_COUNTRY</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>I. GENDER</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>J. SEASON</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>K. PRODUCT_CATEGORY</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>L. PRODUCT_NAME</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>M. PRODUCT_REFERENCE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>N. PRODUCT_DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>O. PATTERN</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>P. STYLE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Q. FIT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>R. NON_IRON</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>S. PERIPHERALS</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Shirts and Trousers</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T. COUNTRY_OF_ORIGIN</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>U. MAIN_BODY_COLOUR</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>V. LIST_OF_COLORS</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>W. FABRIC_COMPOSITION</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>X. IDENTIFIED AS SUSTAINABLE</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Y. KNITTING_WOVEN</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Z. RETAIL_CURRENCY</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ZA. PRICE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>ZB. ON_SALE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ZC. SALE_TYPE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>ZD. SALE_AMOUNT</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ZE. CIEL_TEX_PRODUCT</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>ZF. FEATURED_PRODUCT</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>ZG. MAIN_IMAGE_URL</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>ZH. IMAGE_META_TAGS</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>ZI. SIZE_SET</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>ZJ. SIZE_AVAILABILITY</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>ZK. POSITION</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>ZL. PAGE_NUMBER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-23-44</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>['SHIRTS &amp; BLOUSES', 'BLOUSES', 'PUFF SLEEVE BLOUSE']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.puff-sleeve-blouse-white.1267084002.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PUFF SLEEVE BLOUSE</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>PUFF-SLEEVE BLOUSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>This season, feminine silhouettes and voluminous proportions transform wardrobe classics. Crafted from cotton with subtle stretch, this blouse features a grandad collar, puff sleeves and a concealed placket for a minimal finish.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>['Regular fit', 'Button closure', 'Shell: 95% Cotton, 5% Elastane. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>['WHITE']</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/bc/8b/bc8b255c1beabddde090b8f9562ec7ce6a63b16c_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-23-57</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'RELAXED DENIM SHIRT']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.relaxed-denim-shirt-blue.1265157001.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>RELAXED DENIM SHIRT</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>RELAXED DENIM SHIRT</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Tailored in a billowing shape, this modern shirt is made from mid-blue denim and has a classic pointed collar, buttoned cuffs and a curved, stepped hem. Style it with jeans in a similar wash.</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: [data-testid="accordion-item-2"]&gt; ul &gt; li &gt; p; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Organic cotton is grown from non-genetically modified seeds without chemical fertilisers or pesticides', 'Shell: 100% Organic cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>['BLUE']</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/c0/4f/c04f36bee630cb761d0849441c327fcb2a95cb3f_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-24-10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'DRAWSTRING WAIST SHIRT']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.drawstring-waist-shirt-blue.1283699001.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRAWSTRING WAIST SHIRT</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DRAWSTRING-WAIST SHIRT</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Modern proportions renew the COS shirting collection this season. Crafted from pure cotton-poplin in navy, this piece is designed with an internal drawstring that cinches in at the waistline and features a pointed collar and buttoned cuffs that nod to classic tailoring.</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>['Regular fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>['NAVY', 'BUTTERMILK']</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/07/1c/071c78fba322773d25c1d64465a4e09a05fb6826_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-24-24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'OVERSIZED TAILORED SHIRT']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.oversized-tailored-shirt-yellow.1046869051.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OVERSIZED TAILORED SHIRT</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>OVERSIZED TAILORED SHIRT</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>A staple of the COS womenswear collection, this butter-yellow shirt is crafted from crisp cotton-poplin. It's tailored for an oversized shape that's enhanced by the curved hem and designed with a sharp pointed collar, long sleeves and a patch pocket at the chest.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: [data-testid="accordion-item-2"]&gt; ul &gt; li &gt; p; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>['Oversized fit', 'Button closure', 'Adjustable cuffs', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>['LIGHT BLUE', 'BLUE/WHITE STRIPED', 'GREEN', 'WHITE', 'LILAC', 'BLACK / PINSTRIPED', 'PALE PINK']</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/8b/20/8b204541c2f56cf362e6457ef38bbb6aa5129f36_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-24-36</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'RELAXED COTTON SHIRT']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.relaxed-cotton-shirt-blue.1256720002.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>RELAXED COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RELAXED COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tailored in a billowing shape, this modern striped shirt is made from pure cotton and has a classic pointed collar, buttoned cuffs and a curved, stepped hem. Style it with denim for a refined take on everyday dress.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Blue / White / Striped</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>['BLUE / WHITE / STRIPED', 'WHITE', 'NAVY', 'BROWN / WHITE / STRIPED']</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/3f/bc/3fbcb58e738ae3b265f5d49809012be9d84d6c92_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-24-50</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'OVERSIZED CURVED HEM COTTON SHIRT']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.oversized-curved-hem-cotton-shirt-green.1266111002.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OVERSIZED CURVED HEM COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>OVERSIZED CURVED-HEM COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>This vibrant green piece proposes a renewed take on the classic shirt. Cut in an oversized shape, it's designed with short sleeves, a rounded hem and a bib-front detail that gives it a layered look. Style it with longline shorts and mules.</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>['Oversized fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>['GREEN', 'WHITE']</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/a9/59/a9598c0bbd92e93b7d39c24b7fd4ce12e3882654_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-25-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'RELAXED FUNNEL NECK SHIRT']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.relaxed-funnel-neck-shirt-green.1250560004.html</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>RELAXED FUNNEL NECK SHIRT</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RELAXED FUNNEL-NECK SHIRT</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>This season, the COS womenswear team reimagine the classic cotton shirt with subversive touches. Tailored in a relaxed shape, it's designed with a modern funnel neck that can be fastened to the top or styled undone as a spread collar. It's finished with tonal mother-of-pearl buttons at the placket and cuffs.</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: [data-testid="accordion-item-2"]&gt; ul &gt; li &gt; p; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 95% Cotton, 5% Elastane. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>7</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Khaki</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>['KHAKI', 'WHITE']</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/85/ec/85ec83309d162f3fd7b8c8f8514629ca195adbaf_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-25-16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'OVERSIZED TAILORED SHIRT']</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.oversized-tailored-shirt-white.1046869001.html</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>OVERSIZED TAILORED SHIRT</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>OVERSIZED TAILORED SHIRT</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Crafted from cotton with a washed effect, this elegant white shirt is cut for an oversized fit and features a patch pocket on the chest and a flattering curved hem. The pointed collar and cuffed long sleeves add a tailored finish.</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>['- Adjustable cuffs', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>8</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>['WHITE', 'LIGHT BLUE', 'BLUE/WHITE STRIPED', 'GREEN', 'LILAC', 'BLACK / PINSTRIPED', 'PALE PINK']</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/90/de/90ded539ee72f88198a50713dcfbdc970ca0d4c5_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-25-30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'OVERSIZED CURVED HEM COTTON SHIRT']</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.oversized-curved-hem-cotton-shirt-white.1266111001.html</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OVERSIZED CURVED HEM COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>OVERSIZED CURVED-HEM COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>This crisp white piece proposes a renewed take on the classic shirt. Cut in an oversized shape, it's designed with short sleeves, a rounded hem and a bib-front detail that gives it a layered look. Style it with longline shorts and mules.</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>['Oversized fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>9</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>['WHITE', 'GREEN']</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/e8/53/e8530de1e78b431ba1a0b26ec52fef270610a595_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-25-43</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'KNITWEAR', 'DECONSTRUCTED POPLIN PANELLED WOOL JUMPER']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/knitwear/product.deconstructed-poplin-paneled-wool-sweater-blue.1238442001.html</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DECONSTRUCTED POPLIN PANELLED WOOL JUMPER</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DECONSTRUCTED POPLIN-PANELLED WOOL JUMPER</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>This season, deconstructed details lend a fresh perspective on wardrobe classics. Marrying the design of a jumper and shirt, this V-neck piece features a knitted wool-blend front with striped cotton-poplin panels so it looks as though it's been effortlessly layered.</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: [data-testid^="attribute-item-"][data-testid$="-style"] + dd ; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>['Regular fit', 'This product contains Responsible Wool Standard TE-00047206 (RWS) wool fibre from farms certified to animal welfare and land-management requirements', 'Shell 1: 55% RWS Wool, 45% Cotton. Shell 2: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>10</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Navy / Striped</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>['NAVY / STRIPED']</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/34/be/34bede03600d35b0fdad0be41b20589ff03a07d8_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-25-57</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'RELAXED COTTON SHIRT']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.relaxed-cotton-shirt-white.1256720001.html</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>RELAXED COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>RELAXED COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Tailored in a billowing shape, this modern shirt is made from cotton-poplin and has a classic pointed collar, buttoned cuffs and a curved, stepped hem. Style it with denim for a refined take on everyday dress.</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>11</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>['WHITE', 'BLUE / WHITE / STRIPED', 'NAVY', 'BROWN / WHITE / STRIPED']</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/9f/60/9f60683ad2a72dc2e9534c2bada77c5fc8283770_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-26-10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'DOUBLE BREASTED SHIRT']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.double-breasted-shirt-blue.1268286002.html</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DOUBLE BREASTED SHIRT</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DOUBLE-BREASTED SHIRT</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>This modern shirt takes influence from classic trench coats. Made from a TENCEL™ Lyocell and cotton blend, it's designed with an effortless open lapel neckline and overlapping double-breasted close. It's rendered in a rich cobalt hue and finished with a patch pocket at the chest.</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: [data-testid="accordion-item-2"]&gt; ul &gt; li &gt; p; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>['Regular fit', 'Button closure', 'TENCEL™ is a trademark of Lenzing AG. TENCEL™ Lyocell is made from renewable wood sources, using a process that recycles 99% of all chemicals and water', 'Shell: 52% TENCEL™ Lyocell, 48% Cotton. Excluding trims / Machine wash', 'Back length of size EU 36 is 73.9cm / Model wears a size EU 36']</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>12</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>['BLUE']</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/1d/fb/1dfbca85ac26438c8e81976703c107ddaaa333d2_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-26-23</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'RELAXED COTTON SHIRT']</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.relaxed-cotton-shirt-blue.1256720003.html</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>RELAXED COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>RELAXED COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tailored in a billowing shape, this modern shirt is made from cotton-poplin and has a classic pointed collar, buttoned cuffs and a curved, stepped hem. Style it with denim for a refined take on everyday dress.</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>13</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>['NAVY', 'WHITE', 'BLUE / WHITE / STRIPED', 'BROWN / WHITE / STRIPED']</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/c2/9d/c29debdac34f8875fc0112894b0ee641b5ea57e2_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-26-36</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'TAILORED PIMA COTTON SHIRT']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.tailored-pima-cotton-shirt-white.1271207003.html</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>TAILORED PIMA COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>TAILORED PIMA COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>This season, the womenswear team offers a modern take on tailoring. Rendered in a crisp white tone, this shirt is crafted from ultra-soft Pima cotton and tailored on our classic block for a polished silhouette. It's designed with a chest patch pocket, buttoned cuffs and a rounded hem.</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>['Regular fit', 'Button closure', 'Shell: 100% Pima cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>14</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>['WHITE', 'IVORY / PINSTRIPED', 'LILAC']</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/53/52/5352f958f03726290154ac688523df00c8b267b3_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-26-52</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['SHIRTS &amp; BLOUSES', 'BLOUSES', 'DRAWSTRING PEPLUM BLOUSE']</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.drawstring-peplum-blouse-blue.1266082001.html</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DRAWSTRING PEPLUM BLOUSE</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>DRAWSTRING PEPLUM BLOUSE</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Cut in a billowing shape, this modern blouse is enhanced by a drawstring waist and voluminous ruched sleeves. It's crafted from soft cotton and rendered in a rich midnight-navy tone.</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>['Regular fit', 'Button closure', 'Elasticated cuffs', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>15</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>['NAVY', 'RED']</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/c6/1a/c61a10c90442b2c7a39dd06d0c10cdfc6c46dde3_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-27-06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'OVERSIZED TAILORED SHIRT']</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.oversized-tailored-shirt-pink.1046869050.html</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OVERSIZED TAILORED SHIRT</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>OVERSIZED TAILORED SHIRT</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>A staple of the COS womenswear collection, this pale-pink shirt is crafted from crisp cotton-poplin. It's tailored for an oversized shape that's enhanced by the curved hem and designed with a sharp pointed collar, long sleeves and a patch pocket at the chest.</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: [data-testid="accordion-item-2"]&gt; ul &gt; li &gt; p; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>['Oversized fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>16</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Pale pink</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>['PALE PINK', 'LIGHT BLUE', 'BLUE/WHITE STRIPED', 'GREEN', 'WHITE', 'LILAC', 'BLACK / PINSTRIPED']</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/27/ae/27aea48d7ca3e82cc2b4a78ae63fb8f9c7edfc25_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-27-19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'RELAXED DOUBLE CUFF SHIRT']</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.relaxed-double-cuff-shirt-blue.1243116004.html</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>RELAXED DOUBLE CUFF SHIRT</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>RELAXED DOUBLE-CUFF SHIRT</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Tailored in a relaxed shape, this shirt is designed with squared raglan sleeves, dual cuffs and mother-of-pearl buttons that are shaded to match the light-blue cotton-poplin cloth. It will style effortlessly with denim, skirts and tailoring.</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>17</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Light blue</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>['LIGHT BLUE', 'BURGUNDY', 'WHITE']</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/bb/4c/bb4c8c046a5654c7c776fef710a9b91b08c023c9_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-27-33</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'TOPS', 'FLARED COTTON JERSEY POLO SHIRT']</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/tops/product.flared-cotton-jersey-polo-shirt-blue.1259510001.html</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>FLARED COTTON JERSEY POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>FLARED COTTON-JERSEY POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Imbuing the classic polo shirt with a feminine attitude, this flared top has a fluid hem and long sleeves. It's made from a soft cotton blend in versatile navy and has a pointed collar and tonal buttons.</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'A better alternative to conventional polyester, recycled polyester is made from pre‐ and post‐consumer waste', 'Shell: 72% Cotton, 24% Recycled polyester, 4% Elastane. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>18</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>['NAVY', 'BROWN']</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/3e/00/3e001b9fac6f0c0bd8f5015617a107321ccdea29_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-27-47</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'TOPS', 'RELAXED STRIPED LONG SLEEVED POLO SHIRT']</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/tops/product.relaxed-striped-long-sleeved-polo-shirt-white.1266544001.html</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>RELAXED STRIPED LONG SLEEVED POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>RELAXED STRIPED LONG-SLEEVED POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Made from soft cotton, this top is a laid-back take on the classic polo. It's patterned with contrasting stripes and designed with a spread collar, long sleeves and a minimal concealed placket. Style it with denim.</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 100% Cotton. Trim: 95% Cotton, 5% Elastane. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>19</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>White / Striped</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>['WHITE / STRIPED', 'NAVY / STRIPED']</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/b9/a7/b9a72b194becf3c5c59d43a4735a6359d5ff2036_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-28-01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'OVERSIZED TAILORED SHIRT']</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.oversized-tailored-shirt-blue.1046869041.html</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>OVERSIZED TAILORED SHIRT</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>OVERSIZED TAILORED SHIRT</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Crafted from pure cotton, this classic light-blue shirt is shaped for an oversized fit and features a patch pocket on the chest and a flattering curved hem. The pointed collar and cuffed long sleeves add a tailored finish.</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>['- Button closure', '- Adjustable sleeves', 'Shell: 100% Cotton. Excluding trims / Machine washable']</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>20</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Light blue</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>['LIGHT BLUE', 'BLUE/WHITE STRIPED', 'GREEN', 'WHITE', 'LILAC', 'BLACK / PINSTRIPED', 'PALE PINK']</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/b7/08/b708bc7bf0e00fde71e0e44e52b5c12d92d84e95_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-28-15</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'DRAWSTRING WAIST SHIRT']</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.drawstring-waist-shirt-yellow.1283699002.html</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DRAWSTRING WAIST SHIRT</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>DRAWSTRING-WAIST SHIRT</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Modern proportions renew the COS shirting collection this season. Crafted from pure cotton-poplin in buttermilk, this piece is designed with an internal drawstring that cinches in at the waistline and features a pointed collar and buttoned cuffs that nod to classic tailoring.</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>['Regular fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>21</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Buttermilk</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>['BUTTERMILK', 'NAVY']</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/aa/d5/aad50c4d6ed99a950ba7b59450e28291a9e5d956_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-28-28</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>['SHIRTS &amp; BLOUSES', 'BLOUSES', 'BALLOON SLEEVE BLOUSE']</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.balloon-sleeve-blouse-green.1261327002.html</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BALLOON SLEEVE BLOUSE</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>BALLOON-SLEEVE BLOUSE</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>This season, directional shapes lend wardrobe classics a new attitude. Made from lightweight Pima cotton, this blouse has a voluminous silhouette that's emphasised by the back pleats and modern balloon sleeves. The dark-emerald hue is easy to style.</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 100% Pima cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>22</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Dark green</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>['DARK GREEN', 'WHITE']</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/14/b9/14b918c1687e48e1c190b18a3921c6799ff19e0e_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-28-42</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'CRINKLED TIE FRONT BEACH SHIRT']</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.crinkled-tie-front-beach-shirt-white.1272850002.html</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>CRINKLED TIE FRONT BEACH SHIRT</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>CRINKLED TIE-FRONT BEACH SHIRT</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>This crinkled shirt lends itself to balmy days by the water. It's crafted from lightweight, airy cotton in a flowy silhouette and features ties at the front that can be styled open with swimwear underneath. Wear it as a set with the matching trousers.</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Tie closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>23</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>['WHITE']</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/73/d6/73d6835f4a6739b17a132ffb8206288f55a7b080_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>['StillMedia/DescriptiveStillLife']</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-28-55</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>['SHIRTS &amp; BLOUSES', 'BLOUSES', 'BALLOON SLEEVE BLOUSE']</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.balloon-sleeve-blouse-white.1261327001.html</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BALLOON SLEEVE BLOUSE</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>BALLOON-SLEEVE BLOUSE</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>This season, directional shapes lend wardrobe classics a new attitude. Made from lightweight Pima cotton, this blouse has a voluminous silhouette that's emphasised by the back pleats and modern balloon sleeves. The crisp white hue is easy to style.</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 100% Pima cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>24</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>['WHITE', 'DARK GREEN']</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/3d/cf/3dcf6d41d7dc0fd1a4333fd978fd51c58a7a10ab_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-29-11</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>['SHIRTS &amp; BLOUSES', 'BLOUSES', 'DENIM HALF ZIP BLOUSE']</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.denim-half-zip-blouse-blue.1256718001.html</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DENIM HALF ZIP BLOUSE</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>DENIM HALF-ZIP BLOUSE</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Denim takes on new forms this season at COS. This A-line blouse is made from a soft organic cotton and TENCEL™ Lyocell blend in a versatile mid-blue wash and has a modern metal zip in place of classic buttons. Style it as a co-ord with the matching skirt.</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>['Regular fit', 'Zip closure', 'Organic cotton is grown from non-genetically modified seeds without chemical fertilisers or pesticides', 'Shell: 62% Organic cotton, 38% TENCEL™ Lyocell. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>25</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>['BLUE']</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/de/fd/defd87a293e75fdb81429f073b02e143aa68d2f0_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-29-25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'TOPS', 'RELAXED STRIPED LONG SLEEVED POLO SHIRT']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/tops/product.relaxed-striped-long-sleeved-polo-shirt-blue.1266544002.html</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>RELAXED STRIPED LONG SLEEVED POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>RELAXED STRIPED LONG-SLEEVED POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Made from soft cotton, this top is a laid-back take on the classic polo. It's patterned with contrasting stripes and designed with a spread collar, long sleeves and a minimal concealed placket. Style it with denim.</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 100% Cotton. Trim: 95% Cotton, 5% Elastane. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>26</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Navy / Striped</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>['NAVY / STRIPED', 'WHITE / STRIPED']</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/66/ee/66ee53a81b9f853311f8742c03a4d270b300b21b_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-29-39</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: #main-block-wrapper &gt; div.blocks.flex.flex-col.pb-\[--pdp-sticky-details-height\].lg\:pb-0.pt-\[var\(--header-height\)\].lg\:pt-0 &gt; div.overflow-auto.lg\:grid.lg\:grid-cols-12.lg\:gap-x-4.lg\:overflow-visible.lg\:px-4 &gt; div.lg\:min-h-auto.lg\:static.lg\:grid-cols-6.lg\:overflow-visible.lg\:bottom-auto.lg\:top-0.lg\:col-span-6.lg\:col-start-7.lg\:row-start-1 &gt; div &gt; div.mb-auto.flex.w-full.flex-col.justify-center.px-3\.75.lg\:grid.lg\:grid-cols-6.lg\:gap-4.lg\:gap-y-0.lg\:px-0.lg\:pt-9 &gt; div.col-span-full.flex.flex-col.pt-\[1\.3125rem\].lg\:col-span-4.lg\:gap-8.lg\:pl-2.-mx-3\.75.px-3\.75.lg\:mx-0.lg\:pr-0 &gt; div.relative.ml-\[-1\.125rem\].w-full.hidden.font_small_xs_regular.lg\:mb-\[max\(5rem\,5\.3vw\)\].lg\:block &gt; div &gt; a:nth-last-child(-n+5); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.relaxed-flared-cotton-shirt-pink.1256714003.html</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: #main-block-wrapper &gt; div.blocks.flex.flex-col.pb-\[--pdp-sticky-details-height\].lg\:pb-0.pt-\[var\(--header-height\)\].lg\:pt-0 &gt; div.overflow-auto.lg\:grid.lg\:grid-cols-12.lg\:gap-x-4.lg\:overflow-visible.lg\:px-4 &gt; div.lg\:min-h-auto.lg\:static.lg\:grid-cols-6.lg\:overflow-visible.lg\:bottom-auto.lg\:top-0.lg\:col-span-6.lg\:col-start-7.lg\:row-start-1 &gt; div &gt; div.mb-auto.flex.w-full.flex-col.justify-center.px-3\.75.lg\:grid.lg\:grid-cols-6.lg\:gap-4.lg\:gap-y-0.lg\:px-0.lg\:pt-9 &gt; div.col-span-full.flex.flex-col.pt-\[1\.3125rem\].lg\:col-span-4.lg\:gap-8.lg\:pl-2.-mx-3\.75.px-3\.75.lg\:mx-0.lg\:pr-0 &gt; div.relative.ml-\[-1\.125rem\].w-full.hidden.font_small_xs_regular.lg\:mb-\[max\(5rem\,5\.3vw\)\].lg\:block &gt; div &gt; a:nth-child(3); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: #main-block-wrapper &gt; div.blocks.flex.flex-col.pb-\[--pdp-sticky-details-height\].lg\:pb-0.pt-\[var\(--header-height\)\].lg\:pt-0 &gt; div.overflow-auto.lg\:grid.lg\:grid-cols-12.lg\:gap-x-4.lg\:overflow-visible.lg\:px-4 &gt; div.lg\:min-h-auto.lg\:static.lg\:grid-cols-6.lg\:overflow-visible.lg\:bottom-auto.lg\:top-0.lg\:col-span-6.lg\:col-start-7.lg\:row-start-1 &gt; div &gt; div.mb-auto.flex.w-full.flex-col.justify-center.px-3\.75.lg\:grid.lg\:grid-cols-6.lg\:gap-4.lg\:gap-y-0.lg\:px-0.lg\:pt-9 &gt; div.col-span-full.flex.flex-col.pt-\[1\.3125rem\].lg\:col-span-4.lg\:gap-8.lg\:pl-2.-mx-3\.75.px-3\.75.lg\:mx-0.lg\:pr-0 &gt; div.relative.ml-\[-1\.125rem\].w-full.hidden.font_small_xs_regular.lg\:mb-\[max\(5rem\,5\.3vw\)\].lg\:block &gt; div &gt; a:last-child; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: #main-block-wrapper &gt; div.blocks.flex.flex-col.pb-\[--pdp-sticky-details-height\].lg\:pb-0.pt-\[var\(--header-height\)\].lg\:pt-0 &gt; div.overflow-auto.lg\:grid.lg\:grid-cols-12.lg\:gap-x-4.lg\:overflow-visible.lg\:px-4 &gt; div.lg\:min-h-auto.lg\:static.lg\:grid-cols-6.lg\:overflow-visible.lg\:bottom-auto.lg\:top-0.lg\:col-span-6.lg\:col-start-7.lg\:row-start-1 &gt; div &gt; div.mb-auto.flex.w-full.flex-col.justify-center.px-3\.75.lg\:grid.lg\:grid-cols-6.lg\:gap-4.lg\:gap-y-0.lg\:px-0.lg\:pt-9 &gt; div.col-span-full.flex.flex-col.pt-\[1\.3125rem\].lg\:col-span-4.lg\:gap-8.lg\:pl-2.-mx-3\.75.px-3\.75.lg\:mx-0.lg\:pr-0 &gt; div.flex.flex-col.items-start.lg\:px-0 &gt; h1; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>27</v>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: #main-block-wrapper &gt; div.blocks.flex.flex-col.pb-\[--pdp-sticky-details-height\].lg\:pb-0.pt-\[var\(--header-height\)\].lg\:pt-0 &gt; div.overflow-auto.lg\:grid.lg\:grid-cols-12.lg\:gap-x-4.lg\:overflow-visible.lg\:px-4 &gt; div.lg\:min-h-auto.lg\:static.lg\:grid-cols-6.lg\:overflow-visible.lg\:bottom-auto.lg\:top-0.lg\:col-span-6.lg\:col-start-7.lg\:row-start-1 &gt; div &gt; div.mb-auto.flex.w-full.flex-col.justify-center.px-3\.75.lg\:grid.lg\:grid-cols-6.lg\:gap-4.lg\:gap-y-0.lg\:px-0.lg\:pt-9 &gt; div.col-span-full.pb-12.lg\:order-2.lg\:col-span-4.lg\:mt-12.lg\:border-0.lg\:pl-2.-mx-3\.75.lg\:mx-0.lg\:pr-0 &gt; div.border-b-0\.5.border-faint-divider.px-3\.75.pb-7\.5.lg\:border-0.lg\:px-0.lg\:pb-\[3\.625rem\] &gt; div &gt; h2; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-30-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'TAILORED PIMA COTTON SHIRT']</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.tailored-pima-cotton-shirt-white.1271207001.html</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>TAILORED PIMA COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>TAILORED PIMA COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>This season, the womenswear team offers a modern take on tailoring. Decorated with pinstripes, this shirt is crafted from ultra-soft Pima cotton and tailored on our classic block for a polished silhouette. It's designed with a chest patch pocket, buttoned cuffs and a rounded hem.</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>['Regular fit', 'Button closure', 'Shell: 100% Pima cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>28</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Ivory / Pinstriped</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>['IVORY / PINSTRIPED', 'WHITE', 'LILAC']</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/5b/84/5b84e5aff1f3104e9d476eba31fe04de07dd0205_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-30-20</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'OVERSIZED TIE WAIST SHIRT']</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.oversized-tie-waist-shirt-white.1251975001.html</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OVERSIZED TIE WAIST SHIRT</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>OVERSIZED TIE-WAIST SHIRT</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>In a fresh take on classic shirting, the COS womenswear team designs this piece with exaggerated proportions. It's crafted from soft Pima-cotton poplin and features a pointed spread collar, a wide, concealed placket and slender waist ties that can be tied at the front or back, lending definition to the oversized shape.</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>['Oversized fit', 'Button closure', 'Shell: 100% Pima Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>29</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>['WHITE']</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/b6/ca/b6caf64e690811f3c8074e6d0d2896a1ef324738_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-30-34</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'TOPS', 'FLARED COTTON JERSEY POLO SHIRT']</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/tops/product.flared-cotton-jersey-polo-shirt-yellow.1259510002.html</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>FLARED COTTON JERSEY POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>FLARED COTTON-JERSEY POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Imbuing the classic polo shirt with a feminine attitude, this flared top has a fluid hem and long sleeves. It's made from a soft cotton blend in versatile rust brown and has a pointed collar and tonal buttons.</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'A better alternative to conventional polyester, recycled polyester is made from pre‐ and post‐consumer waste', 'Shell: 72% Cotton, 24% Recycled polyester, 4% Elastane. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>30</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>['BROWN', 'NAVY']</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/6c/3f/6c3fb259ead343db8c78fc112927ef3679541d8c_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-30-51</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'TOPS', 'OVERSIZED DENIM TOP']</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/tops/product.oversized-denim-top-beige.1265715001.html</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OVERSIZED DENIM TOP</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>OVERSIZED DENIM TOP</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Offered in a rich tobacco hue, this denim top is cut in an oversized silhouette and has turn-up sleeves. It's crafted from organic and recycled cotton and detailed with exposed seams that channel a relaxed mood. Style it with the matching jeans for a cohesive look.</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: [data-testid^="attribute-item-"][data-testid$="-style"] + dd ; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: [data-testid="accordion-item-2"]&gt; ul &gt; li &gt; p; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>['Oversized fit', 'Button closure', 'Organic cotton is grown from non-genetically modified seeds without chemical fertilisers or pesticides', 'Shell: 80% Organic cotton, 20% Recycled cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>31</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>['BROWN']</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/96/37/963795b791b9227cbf1c44141915548474a08535_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL32" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-31-04</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'RELAXED FLARED COTTON SHIRT']</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.relaxed-flared-cotton-shirt-black.1256714001.html</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>RELAXED FLARED COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>RELAXED FLARED COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Crafted from pure cotton-poplin, this modern shirt is tailored in a relaxed shape and cut in a trapeze silhouette that flares neatly towards the hem. It's finished with tonal buttons and a box pleat at the back.</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>32</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>['BLACK', 'LIGHT BLUE']</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/18/be/18beda5a4b04c7d694d5e47656428de264d6d649_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-31-17</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>['WOMEN', 'SHIRTS &amp; BLOUSES', 'OVERSIZED PLEAT BACK COTTON SHIRT']</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.oversized-pleat-back-cotton-shirt-white.1271934001.html</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>OVERSIZED PLEAT BACK COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>OVERSIZED PLEAT-BACK COTTON SHIRT</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Considered tones and exaggerated proportions modernise the classic shirt this season. Offered in an enduring ecru hue, this shirt is made from pure cotton and cut with in an oversized shape with a box pleat at the back. It's finished with tonal buttons at the placket and cuffs.</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>['Oversized fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>33</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Ecru</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>['ECRU']</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/c9/90/c9902dde7242e529c12518cb2aecbf425aede858_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL34" t="n">
+        <v>33</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-31-31</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>['SHIRTS &amp; BLOUSES', 'BLOUSES', 'RELAXED DOUBLE CUFF SHIRT']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.relaxed-double-cuff-shirt-white.1243116001.html</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>RELAXED DOUBLE CUFF SHIRT</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>RELAXED DOUBLE-CUFF SHIRT</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tailored in a relaxed shape, this shirt is designed with squared raglan sleeves, dual cuffs and mother-of-pearl buttons that are shaded to match the white cotton-poplin cloth. It will style effortlessly with denim, skirts and tailoring.</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>34</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>['WHITE', 'BURGUNDY', 'LIGHT BLUE']</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/5d/e2/5de20c96801d50b9265c3e86d61deba744d6cfdb_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-31-43</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: #main-block-wrapper &gt; div.blocks.flex.flex-col.pb-\[--pdp-sticky-details-height\].lg\:pb-0.pt-\[var\(--header-height\)\].lg\:pt-0 &gt; div.overflow-auto.lg\:grid.lg\:grid-cols-12.lg\:gap-x-4.lg\:overflow-visible.lg\:px-4 &gt; div.lg\:min-h-auto.lg\:static.lg\:grid-cols-6.lg\:overflow-visible.lg\:bottom-auto.lg\:top-0.lg\:col-span-6.lg\:col-start-7.lg\:row-start-1 &gt; div &gt; div.mb-auto.flex.w-full.flex-col.justify-center.px-3\.75.lg\:grid.lg\:grid-cols-6.lg\:gap-4.lg\:gap-y-0.lg\:px-0.lg\:pt-9 &gt; div.col-span-full.flex.flex-col.pt-\[1\.3125rem\].lg\:col-span-4.lg\:gap-8.lg\:pl-2.-mx-3\.75.px-3\.75.lg\:mx-0.lg\:pr-0 &gt; div.relative.ml-\[-1\.125rem\].w-full.hidden.font_small_xs_regular.lg\:mb-\[max\(5rem\,5\.3vw\)\].lg\:block &gt; div &gt; a:nth-last-child(-n+5); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.gathered-short-sleeved-blouse-white.1238786001.html</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: #main-block-wrapper &gt; div.blocks.flex.flex-col.pb-\[--pdp-sticky-details-height\].lg\:pb-0.pt-\[var\(--header-height\)\].lg\:pt-0 &gt; div.overflow-auto.lg\:grid.lg\:grid-cols-12.lg\:gap-x-4.lg\:overflow-visible.lg\:px-4 &gt; div.lg\:min-h-auto.lg\:static.lg\:grid-cols-6.lg\:overflow-visible.lg\:bottom-auto.lg\:top-0.lg\:col-span-6.lg\:col-start-7.lg\:row-start-1 &gt; div &gt; div.mb-auto.flex.w-full.flex-col.justify-center.px-3\.75.lg\:grid.lg\:grid-cols-6.lg\:gap-4.lg\:gap-y-0.lg\:px-0.lg\:pt-9 &gt; div.col-span-full.flex.flex-col.pt-\[1\.3125rem\].lg\:col-span-4.lg\:gap-8.lg\:pl-2.-mx-3\.75.px-3\.75.lg\:mx-0.lg\:pr-0 &gt; div.relative.ml-\[-1\.125rem\].w-full.hidden.font_small_xs_regular.lg\:mb-\[max\(5rem\,5\.3vw\)\].lg\:block &gt; div &gt; a:nth-child(3); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: #main-block-wrapper &gt; div.blocks.flex.flex-col.pb-\[--pdp-sticky-details-height\].lg\:pb-0.pt-\[var\(--header-height\)\].lg\:pt-0 &gt; div.overflow-auto.lg\:grid.lg\:grid-cols-12.lg\:gap-x-4.lg\:overflow-visible.lg\:px-4 &gt; div.lg\:min-h-auto.lg\:static.lg\:grid-cols-6.lg\:overflow-visible.lg\:bottom-auto.lg\:top-0.lg\:col-span-6.lg\:col-start-7.lg\:row-start-1 &gt; div &gt; div.mb-auto.flex.w-full.flex-col.justify-center.px-3\.75.lg\:grid.lg\:grid-cols-6.lg\:gap-4.lg\:gap-y-0.lg\:px-0.lg\:pt-9 &gt; div.col-span-full.flex.flex-col.pt-\[1\.3125rem\].lg\:col-span-4.lg\:gap-8.lg\:pl-2.-mx-3\.75.px-3\.75.lg\:mx-0.lg\:pr-0 &gt; div.relative.ml-\[-1\.125rem\].w-full.hidden.font_small_xs_regular.lg\:mb-\[max\(5rem\,5\.3vw\)\].lg\:block &gt; div &gt; a:last-child; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: #main-block-wrapper &gt; div.blocks.flex.flex-col.pb-\[--pdp-sticky-details-height\].lg\:pb-0.pt-\[var\(--header-height\)\].lg\:pt-0 &gt; div.overflow-auto.lg\:grid.lg\:grid-cols-12.lg\:gap-x-4.lg\:overflow-visible.lg\:px-4 &gt; div.lg\:min-h-auto.lg\:static.lg\:grid-cols-6.lg\:overflow-visible.lg\:bottom-auto.lg\:top-0.lg\:col-span-6.lg\:col-start-7.lg\:row-start-1 &gt; div &gt; div.mb-auto.flex.w-full.flex-col.justify-center.px-3\.75.lg\:grid.lg\:grid-cols-6.lg\:gap-4.lg\:gap-y-0.lg\:px-0.lg\:pt-9 &gt; div.col-span-full.flex.flex-col.pt-\[1\.3125rem\].lg\:col-span-4.lg\:gap-8.lg\:pl-2.-mx-3\.75.px-3\.75.lg\:mx-0.lg\:pr-0 &gt; div.flex.flex-col.items-start.lg\:px-0 &gt; h1; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>35</v>
+      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: No elements found with the selector: #main-block-wrapper &gt; div.blocks.flex.flex-col.pb-\[--pdp-sticky-details-height\].lg\:pb-0.pt-\[var\(--header-height\)\].lg\:pt-0 &gt; div.overflow-auto.lg\:grid.lg\:grid-cols-12.lg\:gap-x-4.lg\:overflow-visible.lg\:px-4 &gt; div.lg\:min-h-auto.lg\:static.lg\:grid-cols-6.lg\:overflow-visible.lg\:bottom-auto.lg\:top-0.lg\:col-span-6.lg\:col-start-7.lg\:row-start-1 &gt; div &gt; div.mb-auto.flex.w-full.flex-col.justify-center.px-3\.75.lg\:grid.lg\:grid-cols-6.lg\:gap-4.lg\:gap-y-0.lg\:px-0.lg\:pt-9 &gt; div.col-span-full.pb-12.lg\:order-2.lg\:col-span-4.lg\:mt-12.lg\:border-0.lg\:pl-2.-mx-3\.75.lg\:mx-0.lg\:pr-0 &gt; div.border-b-0\.5.border-faint-divider.px-3\.75.pb-7\.5.lg\:border-0.lg\:px-0.lg\:pb-\[3\.625rem\] &gt; div &gt; h2; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-10-19-32-10</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>['SHIRTS &amp; BLOUSES', 'BLOUSES', 'BALLOON SLEEVE SILK BLOUSE']</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Aro</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.cos.com/en_usd/women/womenswear/shirts/product.balloon-sleeve-silk-blouse-red.1251532001.html</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Master Samuelsgatan 46 A, Stockholm, SE, 10638, SE</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>WOMEN</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>BALLOON SLEEVE SILK BLOUSE</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>BALLOON-SLEEVE SILK BLOUSE</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Crafted from a lightweight mulberry-silk blend, this blouse is shaped with oversized sleeves and gathering at the neckline for volume. It's designed with a grandad collar, concealed half-placket and a curved, stepped hem.</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>['Relaxed fit', 'Button closure', 'Shell: 52% Mulberry silk, 48% Cotton. Binding: 100% Cotton. Excluding trims / Machine wash']</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>36</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>['RED']</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>Normal Sale</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>['https://www.cos.com/static-images/products/assets/001/8c/4a/8c4a3bc118ba4334d3f0ea6415d53638c309fb0a_xxl-1.jpg?imwidth=2160']</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>['StillMedia/Lookbook']</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>['XXS', 'XS', 'S', 'M', 'L']</t>
+        </is>
+      </c>
+      <c r="AL37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>